--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2341.536299925298</v>
+        <v>465965.7236851347</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2341.536299925298</v>
+        <v>465965.7236851347</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86519.93176621653</v>
+        <v>5915438.403494834</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86519.93176621653</v>
+        <v>5915438.403494834</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266983435.929901</v>
+        <v>48110274.86095789</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14790.04354642739</v>
+        <v>1329288.973026206</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27254.49875532839</v>
+        <v>2252349.14454374</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39701.63567178301</v>
+        <v>3175409.316061272</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52391.11647913637</v>
+        <v>4097388.776567858</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65080.84685575741</v>
+        <v>5019417.901358716</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77770.57723237845</v>
+        <v>5941447.026149575</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90449.34154366692</v>
+        <v>6867253.990216129</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>103122.2703905659</v>
+        <v>7791899.696869166</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115934.4620631207</v>
+        <v>8671079.858144963</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128816.8521664326</v>
+        <v>9564231.113156065</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141699.2503401698</v>
+        <v>10457382.36816717</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>154581.648513907</v>
+        <v>11350533.62317827</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>167464.0466876442</v>
+        <v>12243684.87818938</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>180356.227995094</v>
+        <v>13135068.27556089</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193247.692555528</v>
+        <v>14024875.18212508</v>
       </c>
     </row>
   </sheetData>
